--- a/NSS/TEMP.xlsx
+++ b/NSS/TEMP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13060"/>
+    <workbookView windowWidth="27660" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="参考资料" sheetId="1" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
   <dimension ref="C2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1217,6 +1217,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://www.bilibili.com/video/BV17V411H7Vu?spm_id_from=333.788.videopod.episodes&amp;vd_source=19b908ebf44aa49fca4ecd3d8614ab38&amp;p=2"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.bilibili.com/video/BV1Uu4y1N7Bd/?spm_id_from=333.1365.list.card_archive.click&amp;vd_source=19b908ebf44aa49fca4ecd3d8614ab38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
